--- a/medicine/Premiers secours et secourisme/Revue_sécurité_civile_et_industrielle/Revue_sécurité_civile_et_industrielle.xlsx
+++ b/medicine/Premiers secours et secourisme/Revue_sécurité_civile_et_industrielle/Revue_sécurité_civile_et_industrielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Revue_s%C3%A9curit%C3%A9_civile_et_industrielle</t>
+          <t>Revue_sécurité_civile_et_industrielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sécurité civile et industrielle (ou S.C.I.) est une publication, éditée par France-Sélection, éditée pour la première fois en janvier 1946 [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sécurité civile et industrielle (ou S.C.I.) est une publication, éditée par France-Sélection, éditée pour la première fois en janvier 1946 .
 Cette revue, maintenant à parution trimestrielle, est à destination des professionnels de la sécurité.
 Les thèmes principalement traités sont : incendie, sécurité, sûreté, prévention, gestion des risques, secourisme, ...
 Lors de l'année 2007, cette publication a édité son 500e numéro.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Revue_s%C3%A9curit%C3%A9_civile_et_industrielle</t>
+          <t>Revue_sécurité_civile_et_industrielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France-Sélection  éditeur de la revue.</t>
         </is>
